--- a/_Out/NFDataCfg/Excel/Task.xlsx
+++ b/_Out/NFDataCfg/Excel/Task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -602,31 +602,31 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="b">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -634,31 +634,31 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="b">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -666,31 +666,31 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -698,31 +698,31 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -730,31 +730,31 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -762,31 +762,31 @@
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -794,31 +794,31 @@
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Task.xlsx
+++ b/_Out/NFDataCfg/Excel/Task.xlsx
@@ -1,41 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
+    <workbookView windowWidth="21495" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Task" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Task" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Id</t>
   </si>
@@ -46,10 +33,10 @@
     <t>NextTaskID</t>
   </si>
   <si>
-    <t>KillMonsterName</t>
-  </si>
-  <si>
-    <t>KillCount</t>
+    <t>ArgCnfID</t>
+  </si>
+  <si>
+    <t>ArgCount</t>
   </si>
   <si>
     <t>LevelReq</t>
@@ -64,55 +51,40 @@
     <t>AwardPack</t>
   </si>
   <si>
+    <t>DescID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>任务类别</t>
-  </si>
-  <si>
-    <t>下一个任务ID</t>
-  </si>
-  <si>
-    <t>要求杀的怪，逗号分开</t>
-  </si>
-  <si>
-    <t>要求杀的怪数量，逗号分开</t>
-  </si>
-  <si>
-    <t>任务限制等级</t>
-  </si>
-  <si>
-    <t>奖励的经验</t>
-  </si>
-  <si>
-    <t>奖励的金币</t>
-  </si>
-  <si>
-    <t>奖励包</t>
-  </si>
-  <si>
-    <t>任务描述</t>
+    <t>TaskType</t>
   </si>
   <si>
     <t>Task1</t>
@@ -131,20 +103,19 @@
   </si>
   <si>
     <t>Task4</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +128,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,13 +139,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +302,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -217,9 +512,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -240,17 +777,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,33 +1089,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="21.46484375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.26666666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="26.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="31.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="13.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="11.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -580,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -598,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -630,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -662,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -694,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -726,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="13.5">
+    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -758,9 +1340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="13.5">
+    <row r="8" s="3" customFormat="1" ht="13.5" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -790,9 +1372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="13.5">
+    <row r="9" s="3" customFormat="1" ht="27" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -822,50 +1404,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1">
+    <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -880,24 +1438,24 @@
         <v>110</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -912,24 +1470,24 @@
         <v>220</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -944,21 +1502,21 @@
         <v>330</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Task.xlsx
+++ b/_Out/NFDataCfg/Excel/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9915"/>
+    <workbookView windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Id</t>
   </si>
@@ -99,10 +99,31 @@
     <t>DropBag_1</t>
   </si>
   <si>
+    <t>Desc_Task1</t>
+  </si>
+  <si>
     <t>Task3</t>
   </si>
   <si>
+    <t>Desc_Task2</t>
+  </si>
+  <si>
     <t>Task4</t>
+  </si>
+  <si>
+    <t>Desc_Task3</t>
+  </si>
+  <si>
+    <t>Task5</t>
+  </si>
+  <si>
+    <t>Task6</t>
+  </si>
+  <si>
+    <t>Task7</t>
+  </si>
+  <si>
+    <t>Task8</t>
   </si>
 </sst>
 </file>
@@ -110,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -140,6 +161,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -148,27 +176,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,8 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +199,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,33 +259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,38 +283,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +325,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,175 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,41 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +569,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -592,6 +589,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,153 +622,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,12 +1116,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1441,7 +1462,7 @@
         <v>24</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1452,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1473,18 +1494,18 @@
         <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -1505,7 +1526,135 @@
         <v>24</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <v>330</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>330</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>330</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <v>330</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
